--- a/data/math401/all/classify/excel/qwen1.5-72b-chat.xlsx
+++ b/data/math401/all/classify/excel/qwen1.5-72b-chat.xlsx
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
